--- a/switch_condition1.xlsx
+++ b/switch_condition1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Dropbox\Kris\Projects\attention_switching_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D48633-7659-4CF4-A95C-2EFBD02B8EEA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FFB15B-8250-4F11-8A2A-9F004C1E3787}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="5160" xr2:uid="{370AD081-480A-46CF-8D60-42E8D40C3F18}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8503" xr2:uid="{3C44BDC8-3F2B-4FE6-B230-0456046432EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="26">
+  <si>
+    <t>Congruent</t>
+  </si>
+  <si>
+    <t>serialPosition</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>PositionX</t>
+  </si>
+  <si>
+    <t>PositionY</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>CorrAns</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>orange_arrow_L.png</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>orange_arrow_R.png</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>blue_arrow_R.png</t>
+  </si>
+  <si>
+    <t>blue_arrow_L.png</t>
+  </si>
   <si>
     <t>Direction</t>
   </si>
@@ -42,43 +90,19 @@
     <t>Trial</t>
   </si>
   <si>
-    <t>Congruent</t>
-  </si>
-  <si>
-    <t>serialPosition</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>PositionX</t>
-  </si>
-  <si>
-    <t>PositionY</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>CorrAns</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
     <t>orange</t>
   </si>
   <si>
-    <t>buffer</t>
-  </si>
-  <si>
-    <t>orange_arrow_L.png</t>
-  </si>
-  <si>
-    <t>n</t>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>non-switch</t>
   </si>
 </sst>
 </file>
@@ -429,71 +453,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A721DA-D00C-4D38-A571-B01A6417627C}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2E6F79-7E2B-43D0-9633-27235AB6CC9F}">
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -502,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J2">
         <v>-0.33</v>
@@ -517,7 +541,581 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>-0.33</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>0.33</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>0.33</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>-0.33</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>0.33</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>-0.33</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>0.33</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>0.33</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>-0.33</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>0.33</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>-0.33</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>0.33</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>-0.33</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>-0.33</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
